--- a/results/correct models/R4-computer-game1/associations_equality_check.xlsx
+++ b/results/correct models/R4-computer-game1/associations_equality_check.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,3224 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>It costs the player a single move to enter the atmosphere from the adjacent cell.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A entry point is adjacent to cells </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement discusses an entry point being adjacent to cells, whereas the second statement discusses the cost or action of a player moving from an adjacent cell to the atmosphere.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 talks about an entry point being adjacent to cells, with no specifics of what it takes to move from these cells to the entry point. Statement 2 gives the specific cost of entering the atmosphere from the adjacent cell, with no mention of what point this refers to.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. 
+Statement 1: Describes a spatial relationship between an entry point and cells. It implies that the entry point is located next to or near the cells.
+Statement 2: Describes a game mechanic in which a player can enter the atmosphere from a nearby cell, costing them one move. This doesn't necessarily imply a spatial relationship, but rather an action and a cost associated with that action.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. While both statements mention the concept of adjacency in relation to cells, they are describing different concepts. Statement 1 is describing the location of an entry point, while Statement 2 is describing the action a player takes and how much it costs in terms of moves.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 is describing the location of an entry point in relation to cells. Statement 2, however, is describing an action (entering the atmosphere) and the cost of that action in terms of moves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>If an announced hypothesis is incorrect, the player loses the game and cannot pose hypotheses any longer or make moves on the board but must continue refuting the hypotheses of other players.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is simply about the capability of a player to make legal moves. The second statement discusses the consequences certain actions may have on the player's ability to continue participating in the gameplay in specific ways.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement refers to the capacity of a player to make legal moves in a game. The second statement outlines the consequences for a player making an incorrect hypothesis in the game, which includes the player being prohibited from making moves or hypotheses.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is a simple explanation that a player can make legal moves in a game. The second statement is more complex and explains a specific rule or condition in a game which might result the player to stop making moves and start refuting the hypotheses of other players.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are discussing different concepts related to game play. The first statement suggests that a player is allowed to make legal moves. The second statement outlines a specific consequence if a player announces an incorrect hypothesis.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. The first statement simply implies that a player is allowed to make legal moves in a game. The second statement, on the other hand, provides a comprehensive rule regarding the consequences when a player makes an incorrect hypothesis in the game. The two statements focus on different aspects of gameplay and do not share the same implications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Other players are informed that the hypothesis was refuted but need to be shown the piece of evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have hypothesis </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement speaks about a player's ability to have a hypothesis, while the second statement discusses what other players are informed about regarding a refutation of a hypothesis and their need for corresponding evidence.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about a player having a hypothesis while the second statement talks about other players' awareness of the refutation of a hypothesis and need for evidence.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a player's ability to form a hypothesis. The second statement is about other players receiving information about a refuted hypothesis and needing evidence for it. They relate to different contexts and concepts.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement talks about a player having a hypothesis, while the second statement speaks about other players being informed that a hypothesis was refuted, and they should be shown the evidence that refuted it. The statements address different aspects and are therefore not the same in meaning.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a player is capable of forming a hypothesis, while statement 2 implies that the players are aware that a hypothesis has been disproved and require evidence to understand why.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A question is asked by a player</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 simply states that a player asks a question, and it doesn't provide any context or additional information. Statement 2, on the other hand, is more specific; it describes questions about a murder circumstance and how other players respond to those questions.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 is a general statement about a player asking a question. Statement 2 is specific in the context of a murder mystery game setting, explaining the function of the questions within the game.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is simply stating that a player is asking a question. The second statement is much more complex and is describing a situation where the questions that are being asked are forming a hypothesis about a murder situation. The remaining players are then asked to try to disprove this hypothesis with their own evidence.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. While both involve a player and a question, the first statement simply states that a player asks a question. The second statement is much more specific, suggesting that the question asked is forming a hypothesis about a murder circumstance and perpetrator, inviting other players to disprove it with their evidence. Simply put, the first statement could be any question asked by a player, whereas the second statement is specifically about a murder mystery game and the specific type of question being asked.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. The first one simply states that a player asks a question. The second one refers to a specific type of question that forms a hypothesis about a murder circumstance and perpetrator, where other players can provide evidence to contradict it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>The planets, Linuta and Verlute, have a wormhole connecting each other, as do Earth and Evilon.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. 
+Statement 1 is a general statement suggesting that a planet has one or more wormholes to other planets, but it does not specify which planets or how many. 
+Statement 2, however, is very specific. It states that there are two sets of two planets (Linuta and Verlute; Earth and Evilon) and each set of two planets is connected by a wormhole. It does not state anything about other planets.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is very broad and simply implies that a planet has a wormhole to other planets. The second statement, however, is more specific; it names four specific planets and states that each pair has a wormhole connection.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. 
+Statement 1 seems to indicate that a planet (unspecified) has a wormhole that leads to other planets (also unspecified).
+Statement 2 is much more specific. It says that there are two separate pairs of specific planets (Linuta and Verlute, and Earth and Evilon) and that each pair is connected by a separate wormhole. It does not imply that there is any wormhole connection between the two pairs of planets or between any other planets.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. Statement 1 is talking about a planet having a warmhole to planets in general, not specifying any particular planet. On the other hand, statement 2 is specifically talking about 4 planets, Linuta, Verlute, Earth and Evilon, and about the fact that they are connected by wormholes. The specifics and details in statement 2 make it different in meaning from statement 1.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. Statement 1 implies that a singular, unspecified planet has a wormhole to other planets, but it doesn't specify how many or which other planets. Statement 2 is far more specific, indicating that there are two pairs of planets (Linuta and Verlute, Earth and Evilon) each with a wormhole connecting them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A player visits a planet by making legal moves on the board until a cell adjacent to an atmosphere entry point is reached.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement discusses a planet having a wormhole, which is a concept from science fiction and theoretical physics referring to a sort of 'shortcut' through space and time. The second statement refers to a game or sport where a player reaches a planet by making legal moves on a board game. The contexts and subjects of the statements are completely different.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same information. The first statement talks about a planet having a warmhole to other planets. The second statement talks about a player visiting a planet by making legal moves on a board game.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is referring to a theoretical concept in physics and astronomy where a planet has a wormhole, (a hypothetical shortcut through space and time) leading to other planets. 
+The second statement seems to refer to a board game or a video game setup where a player moves across a game board or game field to reach a certain point that is adjacent to an "atmosphere entry point", presumably to enter or visit a planet within the game.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. They convey completely different scenarios; the first statement is about a planet having a wormhole (spelled correctly) to other planets - an aspect of theoretical physics. The second statement describes a player visiting a planet in a game by making legal moves on a game board, an atmosphere entry point presumably signifying that a player has reached a certain point in the game. Both statements involve planets, but they do not mean the same thing.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies about the existence of a wormhole (a hypothetical structure in space) on a planet that may lead to other planets. Statement 2, on the other hand, implies about the moves a player in a game can make until they reach a point (an atmosphere entry point), presumably in a board game. These are two distinct contexts with different implications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A player whose token resides on one of four planets having wormhole connections to other planets may choose not to spin the spinner and take the wormhole directly to the other planet.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 just mentions that a planet has wormholes to other planets. In contrast, Statement 2 describes a game scenario, where a player has a choice about how to move their token between planets that have wormhole connections.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is a generalized statement saying a planet has a wormhole to other planets. The second statement is very specific, talking about a player's options within a game that involves planets with wormholes.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 is a very general statement suggesting that a planet has a wormhole to other planets. However, it's grammatically incorrect. The correct phrase should be "A planet has wormholes to other planets." Statement 2 is a much more specific statement that involves not just wormholes and planets, but also a player, a token, the option to not spin a spinner, and the act of using the wormhole to move directly to another planet.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 is a general assertion that a planet has a wormhole to other planets. Statement 2 is much more specific, explaining a rule in a game where a player whose token is on a specific planet with a wormhole can choose to travel through the wormhole rather than spinning a spinner.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. The first statement implies that a planet has wormholes to other planets but doesn't specify any condition or consequence of this fact. The second statement, on the other hand, specifies a condition and consequence - that players whose tokens are on one of four such planets have the option to use the wormhole to go directly to another planet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>The objective of player movement throughout the universe is to investigate specific planets to determine if that was the murder site.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first one talks about a hypothesis being related to a planet. The second one, however, talks about players' objectives in a universe to investigate potential murder sites on specific planets. The subjects, context, and objectives in both sentences are different.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. The first statement talks about a hypothesis having a planet. The second statement talks about an objective of player movement throughout the universe to investigate planets for a specific purpose.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement talks about a hypothesis having a planet while the second statement discusses a player's objective in a game to investigate planets.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They talk about different subjects and have different contexts. The first statement refers to a hypothesis about the existence of a planet whilst the second statement deals with a game or simulation where the player's objective is to find a murder site on specific planets.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. Statement 1 refers to the existence of a planet in a hypothesis, but does not express the purpose or objective of the hypothesis. Statement 2, however, outlines a specific objective and purpose, which involves player movement, investigation, and a murder site. These elements are not present in Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A player visits a planet by making legal moves on the board until a cell adjacent to an atmosphere entry point is reached.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A entry point is adjacent to cells </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement simply describes a location of an entry point in relation to cells. The second statement describes a process or action of a player in a game, which involves the concept from the first statement but also includes additional information.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 simply indicates that an entry point is next to cells. Statement 2, however, provides detailed information on how a player interacts with the board and the importance of the cells adjacent to an atmosphere entry point.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement describes the relative location of an entry point to cells, but the second statement describes a process or action performed by a player in a game involving an atmosphere entry point and cells.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are related in context but convey different information. The first statement talks about the positioning of an entry point, while the second statement describes a process taken by a player in a game.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 simply indicates the location of an entry point, while statement 2 explains a process in which a player reaches a cell next to an entry point.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Also, a player may not move into a cell occupied by another player's token.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A entry point is adjacent to cells </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 is talking about the physical location of an entry point in relation to cells, while statement 2 is outlining a rule about player movement in a game. They are discussing different subjects and concepts.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about the position of an entry point relative to cells, while the second statement establishes a rule about player movement in the game.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is regarding the position of an entry point in relation to cells. The second statement is regarding the rules of movement for players within the game.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. The first statement discusses the location of an entry point in relation to cells, while the second statement establishes a rule about player movement in a game. They are discussing two completely different concepts.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 refers to the position of an entry point in relation to cells, while statement 2 refers to a rule restricting the movement of a player's token in the game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>The player may change directions multiple times but cannot enter the same cell twice during a single turn.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A entry point is adjacent to cells </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement talks about the location of an entry point relative to cells, whereas the second statement describes the rules of movement for a player within a game.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about the position of an entry point while the second statement discusses the rules of a game.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is describing the location or positioning of an entry point in relation to cells. The second statement is describing the rules or restrictions of a player's movements during a game turn.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. The first one is referring to the location of an entry point in relation to cells. The second statement is expressing rules about a player’s movements, including changing directions and re-entering cells, in a game play. They carry different ideas.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 is talking about the position or proximity of an entry point with respect to cells, while statement 2 is talking about the movement and rules a player has to follow while playing a game, specifically how they can change directions and restrictions on entering the same cell multiple times.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>It costs the player a single move to enter the atmosphere from the adjacent cell.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>A legal move is from a cell</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement implies a general notion that a legal move originates from a cell, but doesn't specify any particular game or context. The second statement is more specific and suggests the context of a game where moving into the atmosphere from an adjacent cell uses up a single move. The second statement doesn't necessarily imply this move is legal, as the first statement does.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is talking about a legal move from a cell (it doesn't specify what sort of move, so it could be within a game, a scenario etc.). 
+Statement 2 is more specific, it talks about a player needing to make a single move to enter the atmosphere from an adjacent cell (most likely in a game scenario). The cost of this move is also mentioned.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement is speaking about a move originating from a cell, but doesn't mention any specific move or effects of the move. The second statement gives specific information about a certain move (entering the atmosphere from an adjacent cell) and the cost of that move (a single move), implying the setting is a game. The context and information provided in each statement are different.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 simply states that a move can be made from a cell, it does not provide specifics as to what this move may be. Meanwhile, statement 2 provides specific context, stating that entering the atmosphere from an adjacent cell costs a player a single move.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>It costs the player a single move to enter the atmosphere from the adjacent cell.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>A legal move has a a to which is a cell</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement talks about a legal move related to a cell, but does not provide specific details about the nature of the move. The second statement specifically describes a particular move in which a player enters the atmosphere from an adjacent cell and emphasizes that the move costs the player a single turn.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is somewhat unclear, but seems to suggest that a legal move involves moving to a certain cell. The second statement specifically explains that entering the atmosphere from a neighboring cell will cost a player one move.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 is unclear and does not provide enough information about the context or the content. Statement 2, however, is about a player making a move within a game.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. The first statement describes a certain parameter or condition of a 'legal move' in an unspecified context, whereas the second statement specifically mentions a scenario in a game or simulation where a player spends a single move to enter the atmosphere from a neighboring cell.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>The murder hypothesis is communicated to all players.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to the possible legal moves a player can make in a game, while the second statement refers to a specific piece of information (the murder hypothesis) being shared with all players.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement is about the possible actions of a player in a game, while the second statement is about the communication of a specific hypothesis to all players.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a player being able to make legal moves in a game, while the second statement is about communicating a murder hypothesis to all players, presumably in a game like Cluedo or other murder-mystery games.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are referring to completely different subjects and events. The first statement refers to a player's ability to make legal moves in a game, while the second statement is about sharing a specific theory or idea, most likely within a game requiring deductions like a murder mystery game.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a player has the ability to make moves that are within the rules of a game. On the other hand, statement 2 implies that a proposition or theory suggesting the occurrence of a murder is shared among all players. They both refer to players, but the context and meaning of the two statements are different.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>The wormholes connect certain planets.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They refer to completely different subjects. Statement 1 is about the possible actions of a player (likely in a game), while Statement 2 describes a hypothetical way that planets could be linked.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement is about possible actions of a player in a game, and the second statement is about the connectivity of planets through wormholes.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a player's possible actions in a game, while the second is about a space or science fiction concept involving connections between different planets through wormholes.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They discuss completely different subjects - one is about a player's potential actions in a game and the other is about the connection between planets via wormholes.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. They relate to completely different contexts. Statement 1 refers to possibility of a player making some moves within specified rules, presumably in a game. Statement 2 refers to a hypothetical or fictional concept often used in science fiction, relating to connections between distant points in space-time. The implications drawn from each of these statements would be different based on their respective contexts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>In contrast, the server coordinates communication between players and orchestrates the sequence of events of the game.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is about possible actions of a player in a game, while the second statement is about the role of a server in coordinating a game.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. Statement 1 is about a player's ability to make legal moves in a game, while Statement 2 describes the role of a server in managing communication and event sequence in a game.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is talking about a player's ability to make legal moves in a game. The second statement is discussing the role of a server in coordinating communication and organizing the sequence of events in a game. There is no direct correlation between these two concepts.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They talk about different aspects of a game; the first focuses on the player's capability to make legal moves, while the second explains the role of a server in a multiplayer game setting.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 is talking about possibilities for a player within a game, while statement 2 discusses the role of a server in coordinating gameplay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>These entry points are graphically depicted on the game as a diagonal line off a square on the board leading into a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. The first statement talks about a player having legal moves in a game, while the second statement describes a method of graphically representing entry points into a planet's atmosphere in a game. They refer to two different concepts.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is about a player's ability in a game, while the second statement is about the graphical representation of certain elements in a game.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 refers to potential legal moves a player can make in a game, while Statement 2 describes how certain elements are visually represented in a game.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. They discuss different topics related to a game. Statement 1 talks about the potential actions that a player can take in a game, while Statement 2 explains a visual aspect of a game board.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. Statement 1 implies a general assertion about a player's ability to perform legal moves in a game, whereas statement 2 provides a specific detail about a graphic representation on a board game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A legal move consists of a player moving their token, the number of moves determined by the spinner, either horizontally or vertically, but not diagonally.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. 
+Statement 1 is a broad statement that simply asserts that a player is capable of making legal moves.
+On the other hand, Statement 2 goes into the specifics about what constitutes a legal move - it's related to moving a token based on a spinner's decision, in a horizontal or vertical manner, excluding diagonal moves. It's more of an explanation or definition rather than an assertion of a player's ability.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 simply states that a player can have legal moves, without defining what those moves are. Statement 2 provides a specific definition of a legal move in a certain game context.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is suggesting that a player is capable or permitted to make legal moves in a game. 
+Statement 2 is describing what a legal move consists of in a specific game - it's a detailed definition or description of a legal move involving a player, a token, a spinner and the move's direction.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 speaks in a general sense about a player's ability to make legal moves in a game, without specifying the rules of the game. However, Statement 2 provides detailed specifications about what constitutes a legal move in a specific game.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 simply implies that a player is permitted to make legal moves. Statement 2, on the other hand, provides specific details about what constitutes a legal move in the game, including the direction and number of moves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement relates to a player's ability to make legal moves in a game, while the second statement discusses forming a hypothesis regarding a murder circumstance in a game, which other players try to disprove.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 is about a player's ability to make legal moves, possibly in a game. Statement 2 discusses a hypothetical situation in a murder case where questions are posed and remaining players are asked to disprove them using their evidence.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 is about the possible actions a player can take in a game. Statement 2 is about forming an assumption in a murder mystery game that other players must disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 implies that a player has the ability to make moves that are within the rules of a game or context while Statement 2 implies a specific scenario within a game or context where players are tasked to disprove a hypothesis with their evidence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Players may also travel through a few strategically placed wormholes.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal.
+Statement 1 suggests that a player has the capability to make legal moves, but does not specify what type or category these moves fall within or how these moves are executed.
+Statement 2 is more specific, explaining a particular type of move players may execute - traveling through 'strategically placed wormholes.' It does not reflect all possible legal moves referred to in the first statement. Also, the use of the word "also" suggests this move is an additional feature or extra measure accessible to the players, not necessarily a primary or standard move.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 talks about a player having legal moves but doesn't specify what those moves might be. Statement 2 provides specific information about a possible move (traveling through wormholes) but doesn't indicate whether this move is legal or not.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is generically referring to a player's ability to make legal moves in a game, which could apply to any number of games and contexts.
+Statement 2 is specifically referring to the ability of players to travel through wormholes in a game, a feature that would likely only apply to specific games. This statement is also suggesting this as an additional feature or option for players, as indicated by the use of the word "also".</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 is about the legality of a player's actions within a game. Statement 2 specifically explains a possible action a player can do in a game, i.e., travel through wormholes.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 implies that a player is allowed to make legal moves in a game, while Statement 2 implies that players are allowed to use wormholes for travel in the context of a game. These two statements may apply to the same game, but they describe different actions or possibilities within that game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Also, a player may not move into a cell occupied by another player's token.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement suggests that a player has the capability of making legal moves. The second statement describes a specific restriction or rule that prevents a player from moving into a cell occupied by another player's token.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 is talking about the possibility of a player having legal moves. Statement 2, on the other hand, is outlining a specific rule about not moving into a cell occupied by another player's token.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 is saying that a player is allowed to make legal moves. Statement 2 is specifying a particular rule that a player cannot make a move to a space that is already occupied by another player's token. This could be considered one of the restrictions that define what a "legal move" is, but it is not the same thing as saying a player can make legal moves.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 is saying that a player has the option to make moves that are allowed by the rules of the game. Statement 2 is specifying one particular rule of the game, that a player is not allowed to move into a space that is already occupied by another player's piece.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a player has the ability to make moves within the rules of the game. Statement 2 implies a specific restriction within the rules—that a player cannot move into a cell that is already occupied by another player's token.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>As the players travel through the universe, they are permitted to ask questions about what information their fellow players possess.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is talking about a player's ability to make legal moves in a game or sport, while the second statement is talking about the ability of players to inquire about the knowledge of other players as they explore the universe. The contexts and meanings of these two statements are different.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 is about a player having legal moves in a game, while statement 2 communicates about players traveling through a universe and asking questions.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is talking about a player's ability to make lawful moves in a game whilst the second statement is talking about players in a game having the permission to inquire about information their fellow players have as they progress in the game.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement refers to the ability of a player to make moves within the rules of a game. The second statement refers to the ability of players in a game to inquire about information other players have, which may not necessarily be considered a "move" in a game. The context of these two statements is significantly different.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 implies that a player is allowed to take actions according to rules or regulations, while Statement 2 implies that players can seek information from other players while exploring a certain environment (the universe, in this case). The differences lie primarily in the context- the first is related to moves in games and the latter to gaining information from others.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>The game is an intergalactic murder mystery, which emulates a board game scenario in which players spin a wheel to determine a randomly selected number of moves by which they travel through space to various planets.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 is a general statement about a player's capability of making legal moves in a game. Statement 2, however, is a detailed description of a specific type of game with certain gameplay mechanics. They may share a common theme of game-playing but lack equal meaning.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 is very generic and simply implies that a player can make lawful actions or decisions in a game. Statement 2 explains a specific game scenario involving numerous intricate elements including spinning a wheel, random move selection, and interplanetary travel in an intergalactic murder mystery setting.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is simply stating that a player is allowed to make legal moves, but does not specify what game is being played or any detailed game mechanics. 
+Statement 2, on the other hand, offers a detailed explanation of a specific game involving an intergalactic murder mystery theme, spinning a wheel to determine the number of moves, and traveling through space to different planets. This statement also implies that a player can make legal moves, but it offers much more detail about the context and rules of the game.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. The first statement is a general and non-specific acknowledgment that a player within a game has the possibility of making legal moves. The second statement, however, is a detailed explanation of a specific type of game scenario in an intergalactic theme. While the second statement likely does involve players making legal moves, it provides a lot more context and details that make it non-synonymous with the first statement.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests that a player has the ability to make legal moves but doesn't specify which game or its rules. Statement 2 describes a specific game and its rules, but doesn't necessarily guarantee that all moves made by the player would be legal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Other players are informed that the hypothesis was refuted but need to be shown the piece of evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to the ability of a player to make legal moves in a game, and the second statement refers to informing other players about a refuted hypothesis and showing them the evidence. They are about different scenarios and convey different meanings.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement talks about a player's possible legal moves, while the second statement discusses other players being informed about a refuted hypothesis and the need to show evidence for the refutation.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is talking about potential actions a player can take in a game, whereas the second statement is discussing the process of informing others about a refuted hypothesis.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. The first statement refers to the possible actions a player can take in a game setting, while the second statement refers to refuting a hypothesis and the need to present evidence. These are two different topics and the statements are not expressing the same idea.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 is concerning possible actions for a player in a game, specifically referring to the legality of moves. Statement 2, on the other hand, relates to a process of disproving a hypothesis and sharing this information with others. They refer to two completely different situations and imply distinct matters.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>The first player to accomplish this wins the game.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. The first statement indicates that a player is allowed to make legal moves in a game. The second statement is about the condition for winning the game, which has no direct correlation with the legality of moves a player can make.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No, the two statements convey different information. The first statement refers to a player's ability to make legal moves in a game, while the second statement describes the winning condition of a game.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a player having legal moves in a game. The second statement is about the winning condition of the game, which is the first player to accomplish a certain goal or task wins the game.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. The first statement refers to a player's ability to make legitimate moves within the context of a game, while the second statement refers to the condition for winning the game. They are about different aspects of game play.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a player is allowed to make moves within the rules of the game, while statement 2 implies a specific condition for winning the game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A player whose token resides on one of four planets having wormhole connections to other planets may choose not to spin the spinner and take the wormhole directly to the other planet.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is a general statement about a player's ability to make legal moves in unspecified circumstances. The second statement gives a specific scenario in a game involving tokens, planets, and wormholes, and the player's option to take a certain action. It is much more specific and contextually bound.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is a broad declaration that a player can have legal moves, but doesn't specify the game or the rules. The second statement is a detailed rule from possibly a specific board game involving tokens, planets and wormholes.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is a general statement that can apply to any player in any game, indicating that a player has moves that are within the rules of the game. 
+Statement 2 is a specific rule that applies to a particular game scenario where a player may choose to use a wormhole for movement instead of spinning the spinner. It's a specific instance of a "legal move," but the two statements are not the same.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. While both refer to options available to a player in a game, the first statement is a general comment about potential moves a player may have. The second statement is a detailed explanation of a specific move in a particular situation in the game.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 is a general assertion about the possibility of a player having legal moves, whereas statement 2 is far more specific, outlining a particular condition and option for a player in a specific context.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>If a player draws an incorrect conclusion, they lose the game.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement talks about a player's ability to make legal moves in a game, while the second one talks about the consequence of a player drawing an incorrect conclusion in a game.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about the possibility of a player making legal moves, while the second statement talks about the implications of a player drawing an incorrect conclusion.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement refers to a player being able to make valid or permissible moves in a game. The second statement implies that drawing an incorrect conclusion leads to a loss in the game. These are two separate points related to gameplay.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They address different aspects of a game - possible moves a player can make and the repercussions of incorrect deductions, respectively.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests that a player is allowed to make valid moves in a game, while statement 2 indicates that a player will lose if they wrongly interpret the game situation. The implications of each sentence are distinctly different.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>The solution is then broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to a player's ability to make legal moves, most likely in a game context. The second statement refers to a solution being shared with all players, which could be within a problem-solving or game scenario, but it is not directly related to an individual player's moves.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is about the potential actions of a player, while the second statement is about distributing a solution to all players.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about the possibility for a player to make legal moves in a game. The second statement is about a solution being shared with all players, possibly in a game or other context.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement relates to a player's ability to make legal moves in a game, while the second statement refers to a solution being shared with all players. They refer to different situations and concepts.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests that a player has the opportunity to make moves within the rules of the game. Statement 2, however, communicates that all players are informed about a solution. The statements talk about two different aspects of a game and are not equivalent in implication.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>The game's objective is to gather clues while traveling about the universe.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. Statement 1 talks about the possibility of a player making legal moves in a game. Statement 2 describes the objective of a particular game which involves gathering clues and traveling about the universe.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is about the possibilities of a player's actions, while the second statement is about the objective of a particular game.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is talking about the possible legal moves a player can have in a game, which is related to the rules and actions within the game.
+Statement 2 is describing the objective or goal of a specific game, which involves gathering clues and traveling about the universe. It does not mention anything about possible moves a player can make.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They convey different ideas. Statement 1 refers to the ability of a player to make lawful moves in a game, while Statement 2 describes the overall goal of a specific game.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 refers to the possible legal moves a player can make, likely referring to their actions within the game. Statement 2 outlines the objective of a specific game, which implies tasks players must accomplish to win. These are two distinct aspects of gaming gameplay and goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>This element is primarily dictated by luck since the wheel's spin determines the speed at which a player reaches a destination.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 refers to the player's ability to make legal moves in a game, while statement 2 refers to an element of a game being primarily influenced by luck, determined by the spin of a wheel.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. The first statement talks about a player having legal moves, and the second one refers to the influence of luck in determining a player's speed in reaching a destination according to a wheel's spin.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is talking about a player's ability to make legal moves in a game, which implies that there are rules to follow. 
+Statement 2 is talking about the element of luck in a game, where the spin of a wheel determines the speed of a player reaching a destination. It's discussing the unpredictability or randomness of the outcome.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 refers to a player's ability to make legal moves in a game, while statement 2 refers to the element of luck in a game where the speed of reaching a destination is determined by the spin of a wheel. The first statement is about strategy and the decisions made by a player, whereas the second is about chance and variables outside the player's control.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a player has the ability to make moves within the rules of a game. Statement 2 suggests that luck, rather than skill or strategy, is the main determining factor for a player's speed in reaching a destination in a game involving a spinning wheel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>The player is considered to be on the planet as soon as the planet's atmosphere has been entered.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They are discussing two different topics. Statement 1 is about possible actions a player can take in a game. Statement 2 is about the physical location of a player, presumably in a game or simulation involving planets.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement talks about a player having legal moves, presumably in a game. The second statement discusses a player's entry into a planet's atmosphere. These are not similar scenarios or pieces of information.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 is talking about the possible legal moves a player can make, generally in the context of a game or sport. Statement 2 is talking about a player being considered present on a planet as soon as they enter the planet's atmosphere, likely in a space exploration or science fiction context. They are discussing completely different scenarios.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They discuss two completely different subjects: one is about potential actions in a game, the other is about presence on a planet, likely in a context of a space exploration or a science fiction game.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 relates to the legal moves of a player, presumably in a game. Statement 2, on the other hand, pertains to when a player is considered to be on a planet, presumably in a space exploration context. These two statements have different subjects and talk about different scenarios, hence they do not have identical implications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>A player may not re-visit the same planet on a single turn.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement suggests that a player is allowed to make legal moves, while the second statement sets a specific restriction that a player cannot visit the same planet twice in one turn. They might refer to rules in the same game, but they are addressing different aspects.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 talks about a player having the ability to make legal moves. Statement 2 restricts a certain type of movement within a game, but it doesn't mention anything about the legality of moves overall.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is saying that a player has the ability to move within the bounds of the game's rules. 
+Statement 2 is setting a specific rule: that a player cannot go back to a planet they have already visited in the same turn.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement is talking about a player having the ability to make legal moves, whereas the second statement is more specific and dictates a particular rule that a player cannot do a particular action, which is revisiting the same planet on a single turn. The first statement is more general while the second one is more specific.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests that a player is allowed to make lawful moves in a game, but it does not specify any restrictions or particular rules. Statement 2 implies a specific rule within a game that forbids a player from visiting the same planet more than once during a single turn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>The player may change directions multiple times but cannot enter the same cell twice during a single turn.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement generally implies that a player is allowed to make moves within the rules of the game. The second statement is far more specific, detailing particular rules of movement within a game, including changing directions and not entering the same cell twice in a turn. Therefore, although they both relate to game rules, they convey different meanings.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 simply states that a player can make legal moves. Statement 2 provides specific conditions for what those moves can be, such as changing directions and not entering the same cell twice in a turn.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. 
+Statement 1 is a general statement about a player being able to have legal moves. It doesn't specify what those moves might be, or any restrictions on them.
+Statement 2 describes specific rules about a player's moves, indicating that the player can change directions but can't enter the same cell twice in one turn. This is much more specific than the first statement, and it places restrictions on the moves that may not exist in Statement 1.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. 
+Statement 1 simply implies that a player has possible, allowable moves within a game. 
+Statement 2, however, describes specific game rules about the player's movement and does not cover all possible legal moves that might be available.  Hence, while Statement 2 could be an example of a legal move as per Statement 1, it does not mean that all legal moves follow the rules described in Statement 2.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a player is allowed to make moves within the rules of a certain game. Statement 2, on the other hand, describes specific rules about how a player can move within a game, without necessarily indicating whether these moves are legal or not.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Each player receives information concerning the murder, and no players receive the same information.</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to a player having the ability to make legal moves, presumably in a game. The second statement involves players receiving unique information about a murder, presumably in a game of mystery or investigation. There's no direct correlation between the two statements.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. The first statement speaks about a player's ability to make legal moves, presumably in a game, while the second statement provides details about players receiving unique information related to a murder. They are related to two different scenarios.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 is about the possible actions of a player in a game, while Statement 2 is about the distribution of information to players in a game or scenario related to a murder mystery. They are discussing two different aspects of a game.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are discussing different concepts: the first statement discusses a player's abilities in a game, while the second statement discusses a specific scenario in a game where players receive different information.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. 
+Statement 1 seems to be talking about the ability of a player to make moves within the constraints of a game's rules. 
+Statement 2, on the other hand, implies that every player in a game is given separate details about a murder, which suggests the game might be some sort of murder-mystery or detective game. They are referring to different aspects of potential game mechanics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement simply refers to a player's ability to make legal moves. The second statement, on the other hand, refers to a specific method of winning a game. The two statements could apply to the same game, but they refer to different aspects of the game and therefore have different meanings.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 is a general statement about a player's ability to make legitimate moves in a game. Statement 2 explains a specific method of winning a particular game.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. Statement 1 is talking about the possibility of a player making legal moves in a game. Statement 2 is describing a specific method by which a player can win a game; it does not mention anything about "legal moves."</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 relates to the possible moves a player can make within the framework of a game, while Statement 2 specifically defines a way to win a specific type of game. These two statements are referring to different aspects of game play.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. Statement 1 implies that a player has the option to make legal moves, where the context of what constitutes a "legal move" isn't provided. Statement 2, on the other hand, describes a specific way a player can win a game, suggesting a game of deduction or mystery but does not necessarily imply anything about the general capacity of a player to make legal moves in a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>The planets, Linuta and Verlute, have a wormhole connecting each other, as do Earth and Evilon.</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to the possible moves of a player in a game, while the second statement describes a specific astronomical situation involving wormholes between planets. They are discussing entirely different topics and concepts.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same information. Statement 1 talks about a player having legal moves, while statement 2 discusses planets being connected by wormholes.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>No, the two statements are not conveying the same meaning. 
+Statement1 is referring to possible actions a player can perform in a certain game while adhering to its rules. 
+Statement2 is discussing an interstellar phenomenon - a wormhole - between two sets of planets. It has no relation to games or player moves.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are not related by theme, concept, or context and they speak about completely different subjects - one about a player's moves in a game, and the other about interstellar travel between specific planets.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 is about possible actions in a game while statement 2 is about astronomical or science fiction concept of wormholes between planets. They are referring to completely different contexts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>To visit a planet, a player must enter the planet's atmosphere at one of the predefined entry points.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement speaks about a player having the ability to make legal moves in an unspecified context, whereas the second statement talks about a specific action a player must take within the context of visiting a planet in a game or simulation. They address two different concepts.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. The first statement talks about a player's ability to make legal moves while the second statement discusses specific rules for visiting a planet in a game setting.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is talking about a player's ability to make legal moves in a game context, which could be any game. The second statement, on the other hand, is specific to a game (or situation) involving space travel or exploration, stipulating a rule for a player to follow when visiting a planet.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement is about a player having legal moves, which could apply to many types of games. The second statement is specifically about a game or protocol where a player needs to enter a planet's atmosphere at a specific point. They might both be referring to rules in a game, but they are not describing the same rule or situation.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. The first statement is a general comment about a player's ability to make legal moves in a game, but it does not specify what type of game or what those moves might be. 
+The second statement is much more specific, saying that a player must enter a planet's atmosphere at predefined entry points. This implies a game or scenario involving space travel or planet exploration. 
+The implications are different because the context of each statement is very different.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Each planet has between one and three predefined atmospheric entry points.</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is talking about a player having possible legal moves in a game, whereas the second statement refers to each planet having a certain number of predefined atmospheric entry points. They concern completely different topics and contexts.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same information. One is regarding possible actions in a game for a player, and the other is about planets and their atmospheric entry points.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about the possible actions of a player in a game, while the second statement is about specific conditions of planets.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are talking about two completely different subjects - one is about a player in a game and the other is about planets and their atmospheric entry points.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 relates to the possible actions of a player in a game while statement 2 relates to the physical attributes of celestial bodies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>This application will, therefore, take on a client/server structure where each client supports one player's view of the game.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. One discusses the possibility of a player making legal moves, while the other discusses the structure of a game application.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is about a player's ability to make legal moves in a game, while the second statement is describing the structure of a game application.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 refers to the legality of a player's moves in a game, meaning that the player can make actions or decisions within the rules of the game.
+Statement 2, on the other hand, is referring to how a digital application is organized, using a client/server structure to support individual players' perspectives of the game. This would presumably allow each player to interact with the game from their own device, also suggesting that the game could support multiple players simultaneously.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 relates to the possible actions a player can take in a game, while Statement 2 discusses the technical structure of a gaming application.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. 
+Statement 1 talks about players being able to have legal moves in games, suggesting that the topic is the gameplay or perhaps game rules.
+Statement 2, on the other hand, discusses the technical setup of an application, specifically client/server organization, to accommodate players' perspectives in the game, implying the topic is the technical structure of a game's software.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>The game's strategy is embodied in selecting questions to ask other players, selecting planet destinations, and efficiently deducing the correct murder scenario.</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is about a player's ability to make legal moves, while the second statement is explaining the strategy of a particular game. They are referring to different aspects of a gameplay.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about a player's capacity to make legal moves in a game, while the second statement discusses specific ways a game's strategy can be employed. They both relate to game play, but do not express the same idea.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is a general statement indicating that a player is permitted to make certain moves within the context of a game.
+Statement 2, however, is specifying particular strategies used within a specific game, involving things like asking questions, choosing planet destinations, and deducing a murder scenario. This statement is more specific and detailed than the first one.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 is about the legality of a player's moves in a game, while Statement 2 describes a specific strategy in a game involving questions, planet destinations, and deducing a murder scenario.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. Statement 1 suggests that a player in a game has the ability to make moves that are within the rules of the game. Statement 2, however, discusses the specific strategy involved in a particular game, including asking questions, selecting locations, and figuring out a murder scenario. These are two different aspects of gameplay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>The goal of the class project is to implement an Internet-based, who-done-it-style game called Galaxy Sleuth.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to the concept of a player having legal moves, potentially in a game or sport. The second statement describes a specific class project's goal to create a unique online game. They refer to separate and distinct concepts.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. Statement 1 is talking about the possibilities a player can have in a game generally, while Statement 2 is describing a specific class project involving a game called Galaxy Sleuth.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is a general statement acknowledging that in many games, a player may have legal moves. 
+Statement 2 is specific, outlining the goal of a class project to create a specific type of game called Galaxy Sleuth. It makes no reference to "legal moves" or any sort of game mechanics.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement talks about a possible action a player can take in a game, while the second statement describes a specific goal for a class project.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 talks about the ability of a player to make legal moves, likely in a game. This is vague and could refer to any game - physical, digital, board game, sports, etc. Statement 2, on the other hand, discusses a specific task of creating a particular Internet-based game. It talks about the goal of a project, not the actions of a player within a game. So the implications of these two statements are quite different.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>When the correct hypothesis is announced, all players are informed of the circumstances of the murder.</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. They are discussing two different topics. Statement 1 is about the ability of a player to make legal moves in a game, whereas Statement 2 provides information about what happens when a hypothesis is revealed in a murder circumstance.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>No, the two statements are not conveying the same meaning. The first statement talks about a player's ability to make legal moves in a game, presumably a board or video game. The second statement, on the other hand, is related to a game scenario where players are informed about a murder hypothesis, likely within a murder mystery game. The situations and information described by both statements are different.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They discuss two different concepts - one refers to the possible moves a player can make, and the other refers to information being shared with all players in a specific scenario or instance.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. Statement1 relates to a player's ability to make legal moves in a game, while Statement2 involves information being disclosed to all players in a mystery or crime-solving context. Each implies a different scenario and outcome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>After gathering a certain set of clues and applying deductive reasoning, players may deduce the perpetrator and circumstance of the murder.</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. Statement 1 refers to the ability of a player to make legal moves in a game, while Statement 2 describes a specific process in a detective game where players use clues and deduction to solve a murder mystery. They refer to different contexts and gaming actions.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement is talking about a player being able to make legal moves in a game, while the second statement is about players using deductive reasoning based on clues to figure out a crime scenario.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 appears to be talking about a player's ability to make legal moves in a game, whereas Statement 2 is related to solving a murder mystery which involves players gathering clues and using deductive reasoning to identify the criminal and the circumstances of the crime.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 is referring to a player's ability to make legal moves in a game, while Statement 2 is referring to the process of deducing the identity of a perpetrator and the circumstances of a murder, likely in a detective or murder-mystery type game. They refer to different aspects of game play.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a player is allowed to make legal moves in a game, which could be applicable to any type of game. Statement 2, on the other hand, refers to a specific scenario where players are gathering clues to solve a murder mystery, which implies a specific type of game or activity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>A player visits a planet by making legal moves on the board until a cell adjacent to an atmosphere entry point is reached.</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. 
+Statement 1 is a general statement implying that a player can make legal moves in a game, without specifying any game or context.
+Statement 2, on the other hand, describes a specific process in a game. It specifies that a player can visit a planet through legal moves on a board and specifies the conditions under which the move is valid (reaching a cell adjacent to an atmosphere entry point). Therefore, this statement is far more specific than Statement 1.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement simply states that a player is allowed to make legal moves. The second statement explains how a player uses those legal moves to reach a certain point on the board.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. 
+Statement 1 is a general statement indicating that a player is able to make moves that are within the rules.
+Statement 2 is more specific, detailing a process in which the player uses legal moves to reach a particular goal on the board (in this instance, a cell adjacent to an atmosphere entry point).</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 is saying that a player has the capability to make legal moves, whereas Statement 2 is specifically describing one way in which a player can use legal moves within a game.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>No, the implications of statement 1 and statement 2 are not identical. Statement 1 implies that a player has the capability to make legal moves in the game. Statement 2, on the other hand, provides a specific scenario about a player visiting a planet by making legal moves until a particular position is reached. Statement 2 includes more specific detail as compared to the general assertion made in Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>The player can enter the planet's atmosphere in a different number of moves.</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. The first statement is talking about a player having possible, allowable actions (moves) in a general context, probably in a game or sport. The second statement specifically talks about a player being able to enter a planet's atmosphere in different numbers of actions (moves), likely referring to a space-themed game. There are specific contexts in the second statement that are not present in the first.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is general and talks about the legality of a player's moves, but does not specify any game or context. The second statement clearly refers to a specific game or scenario involving entering a planet's atmosphere, and the mentioning of a different number of moves suggests more complexity in gameplay.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is saying that a player is allowed to make valid actions or steps within a game as defined by the game's rules. 
+Statement 2 is saying that a player can approach a specific situation within a game (the entry into a planet's atmosphere) through various strategies or paths, likely involving varying amounts of actions or steps. It is a more specific scenario when compared to statement 1.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement is general and can apply to any game or sport, meaning a player is allowed to make certain moves according to the rules. The second statement is more specific and seems to refer to a specific scenario, possibly in a video game, where a player can enter a planet's atmosphere through different methods or strategies.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 implies the player is allowed to make legal moves in a game, but doesn't specify the context or type of game. Statement 2 implies the game involves traveling in space and entering a planet's atmosphere.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>The game is Internet-based in that players can play each other from remote sites on the Internet.</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 talks about a player's ability to make legal moves in a game, while Statement 2 describes the game as being Internet-based and allows players to play each other from different locations.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 talks about a player's ability to make legal moves, while Statement 2 talks about the nature of the game being internet-based allowing players to play from remote sites.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>No, these two statements don't convey the same meaning. Statement 1 talks about a player's ability to make legal moves in a game, while Statement 2 describes how a game can be played over the Internet, with players at remote locations.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement talks about a player's ability to make legal moves in a game, while the second statement describes how the game is played over the internet from different locations.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 implies that a player has the capacity to make moves that are considered within the rules of a game. Statement 2 represents the concept that the game can be played online from different locations, and does not necessarily speak to the legality of the players' moves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>If the hypothesis cannot be denied, all players are informed of that fact.</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement talks about the possibility of a player making legal moves, while the second statement is about a hypothesis that cannot be denied and all players being informed about it. They discuss different topics and scenarios.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first one talks about a player's ability to make legal moves, while the second one is about players being informed if a hypothesis cannot be denied.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a player's ability to make legal moves, likely in a game. The second statement is about informing players if a certain hypothesis cannot be denied. They are discussing two different subjects.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They discuss two different scenarios; one is about the possible actions of a player in a game, while the other discusses a condition about a hypothesis and its revelation to all players.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>No, these statements do not have identical implications. Statement 1 is mentioning the ability of a player to make legal moves in perhaps a game or a sport, while Statement 2 is talking about a scenario where a hypothetical situation can't be denied and the information is relayed to all players. These two statements are implying different scenarios.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>It costs the player a single move to enter the atmosphere from the adjacent cell.</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 is a general statement about a player's ability to make legal moves in a game, regardless of the game's context. Statement 2 is a specific scenario in a particular game context where the player is entering the atmosphere from an adjacent cell, which costs one move; it doesn't represent the entirety of all possible 'legal moves' a player may have.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 talks about a player's ability to make legal moves in general, while statement 2 specifies a particular action (entering the atmosphere) and its cost (a single move) from a specific location (the adjacent cell).</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is speaking about the possibility of a player making a move within the rules of a game. The second statement is explaining a specific action the player can make and what it costs in the game.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 is explaining that a player is allowed to make legal moves without specifying what those moves might be. Statement 2, on the other hand, is defining a specific action a player can take and the cost associated with it.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests a player can make legal moves but doesn't specify what these moves are. Statement 2 provides a specific action a player can take and the cost associated with it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. Statement 1 refers to a player's ability to make legal moves, presumably in a game. Statement 2, on the other hand, is about communication of information to a player who disproves a hypothesis, which could be in a scientific, mathematical, or some other context. There's no commonality in meaning between the two statements.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same information. Statement 1 talks about a player's potential legal moves in a game, while statement 2 refers to the communication of disproved hypotheses in a particular context.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first one is talking about a player's possibility of making legal moves in presumably a game. The second statement is discussing the scenario where a player can disprove a hypothesis and that information is only communicated to the player who asked the question. They are discussing two different scenarios and concepts.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. They are dealing with two different contexts. The first statement refers to the actions a player can take in a game, while the second statement refers to the disclosure of information related to disproving a hypothesis.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 is about a player's ability to make legal moves in a game whereas statement 2 specifies a condition in which a player can disprove a hypothesis and how that information is shared. They imply different things and are not related.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>The objective of player movement throughout the universe is to investigate specific planets to determine if that was the murder site.</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement refers to the possibility of a player making legally acceptable moves within a game context. The second statement refers to a specific objective of player movement within a universe, which involves investigating potential murder sites on planets. They convey different meanings.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. The first statement simply states that a player can make legal moves, while the second statement explains a specific objective for a player's movements in a universe-based game, which involves investigating planets.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+The first statement talks about a player's ability to make legal moves, presumably in the context of a game. 
+The second statement describes a specific scenario in which a player's movement within a game universe is for the purpose of investigating planets as potential murder sites. There's no discussion of the legality of the moves in this statement.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement describes the ability for a player to make legal moves in a game, without any specific objective or context. The second statement, however, provides a specific objective for player movement within a space-themed game. The statements might be related if they're about the same game, but they express different ideas.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a player is allowed to make legal moves within a game but doesn't specify what the game is or the purpose of the move. On the other hand, Statement 2 suggests a specific context, i.e., investigating planets to find a murder site, which implies a specific game and objective.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Part of the game, therefore, involves reaching suspicious locations quickly to investigate them.</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have legal moves </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement talks about the possibility of a player making legal moves in a game. The second statement, however, discusses a specific aspect of a game where a player needs to quickly reach certain locations in order to investigate them. They discuss different aspects of gameplay.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about a player being able to make legal moves while the second statement is about a game strategy to reach suspicious locations quickly.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 is talking about a player's ability to make legal moves in a game, whereas statement 2 is talking about a specific strategy or aspect of a game involving speedy investigation of suspicious locations. They could possibly be about the same game, but they are not saying the same thing.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. They relate to different aspects of a game. The first statement relates to the legal actions a player can take in a game, while the second statement talks about a strategic aspect of a game. They do not convey the same meaning.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests that a player is allowed to make certain moves according to the rules of the game. Statement 2 implies that the game involves strategy and response to situations that seem suspicious.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>The game's objective is to gather clues while traveling about the universe.</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>A player can have gathereds which are clues</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. The first statement simply implies that a player can possess clues, while the second statement describes a specific goal of a game that involves gathering clues and traveling around the universe.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement refers to a player gathering something that can be clues, but doesn't specify any objective or setting. The second statement, on the other hand, mentions a specific objective (to gather clues) and a setting (while traveling about the universe).</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. The first statement implies that a player has already gathered clues, but it doesn't specify any game objective or mention traveling. The second statement outlines a game objective - gathering clues while traveling around the universe.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement explains that a player can gather things which are clues, but doesn't specify that this is an objective, or mentions the universe. The second statement explicitly states the game's objective and provides context for where the clues are to be gathered (the universe).</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests that a player can gather items, which can be clues. Whereas, statement 2 proposes that the actual objective of the game is to gather clues, implying that it's a necessary action, not just a possibility. Besides, statement 2 includes an additional aspect of traveling about the universe, which is not present in statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>After gathering a certain set of clues and applying deductive reasoning, players may deduce the perpetrator and circumstance of the murder.</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>A player can have gathereds which are clues</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement implies that a player can accumulate things (possibly in a game) that serve as clues. The second statement is more specific, mentioning a process of gathering clues, applying deductive reasoning, and deducing the details of a murder case. They may relate to a similar context, but they're not saying the same thing.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 simply states that a player can gather clues, while Statement 2 elaborates on what can be done after gathering clues - using deductive reasoning to solve a murder.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is saying that a player can possess things (possibly pieces of information or evidence) that serve as clues. The second statement is explaining a process in which players gather clues and use deductive reasoning to solve a murder mystery. The details and context implied in both statements are different.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 is talking about a player being able to gather clues, but doesn't mention anything about deductive reasoning or solving a murder. Statement 2, on the other hand, goes further to detail the process of using clues and deductive reasoning to solve a murder. These two statements could be related in the context of a murder mystery game, but they are not saying the same thing.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 is simply stating that a player can gather clues. Meanwhile, Statement 2 is more specific and intricate, stating that combining the act of gathering clues and using deductive reasoning can result in deducing the details of a murder scenario. It also outlines a specific goal or consequence (deducing the perpetrator and circumstance of the murder) that is not mentioned in Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>The game's objective is to gather clues while traveling about the universe.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>A clue has player</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement implies that a player has a clue, while the second statement tells us about a game's objective of gathering clues.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 indicates that a clue has a player, which is somewhat unclear. Statement 2 describes the objective of a game which involves collecting clues in a universe setting.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement suggests that a clue has a player, which is somewhat illogical as typically players seek clues, not the other way around. The second statement describes the objective of a game which involves gathering clues throughout the universe.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 suggests that a player is connected to a clue, but it is unclear in what context. Statement 2 provides a clear objective for a game, which involves traveling and gathering clues. The two statements refer to different contexts and do not imply the same thing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>After gathering a certain set of clues and applying deductive reasoning, players may deduce the perpetrator and circumstance of the murder.</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>A clue has player</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is a simple, unclear sentence that seems to imply a player has a clue. The second statement is more comprehensive, explaining a process in which players gather clues and apply deductive reasoning in a murder mystery game.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is grammatically incorrect and does not convey a clear meaning. The second statement is about players using clues and deductive reasoning to deduce the perpetrator of a murder.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 suggests the notion that a clue possesses or owns a player, which is not a conventional use of the terms "clue" and "player". Statement 2, on the other hand, describes the process in a game or narrative where players use clues and reasoning to solve a murder mystery. There is no shared meaning between these two statements.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 is unclear and seems to imply a player belongs to a clue, which is not a usual or common implication. Statement 2, however, is much clearer and states that players, after gathering clues and using deductive reasoning, may solve a murder mystery. The two statements do not convey the same meaning or implications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player can have hypothesis </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 talks about the ability of a player to have a hypothesis, while Statement 2 discusses what happens if a player can disprove a hypothesis. The two statements do not convey the same message, and thus they are not semantically equal.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is about a player being able to have a hypothesis. The second statement deals with a specific situation where a player disproves a hypothesis and that information is shared only with the player who inquired it.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 suggests that a player is capable of formulating a hypothesis. 
+Statement 2, on the other hand, provides a condition and consequence: a player can disprove a hypothesis and, if this occurs, that disproof is only communicated to the player who inquired. 
+While both statements involve a player and a hypothesis, they are not saying the same thing.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement refers to a player having a hypothesis, while the second statement describes the communication process in case the hypothesis is disproved. They discuss different concepts.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a player is able to come up with a hypothesis or supposition while statement 2 implies that in the event a player is able to disprove a hypothesis, that information is shared only with the player who questioned it. The two statements relate to different parts of the hypothesis process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>The game's strategy is embodied in selecting questions to ask other players, selecting planet destinations, and efficiently deducing the correct murder scenario.</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>A player can have asks which are questions</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 talks about a player having questions, while statement 2 discusses a game strategy involving a series of actions including selecting questions, planet destinations and deducing a murder scenario. They may relate to the same context (a game) but address different aspects of that context.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is about a player's ability to ask questions within a game. The second statement is about the overall strategy of the game, which involves not just questioning, but choosing destinations and deducing scenarios as well.</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is simply saying that a player can ask questions. The second statement is explaining a specific strategy within a game which includes asking questions, but also involves other actions such as selecting planet destinations and deducing a murder scenario.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement implies that a player can ask questions, but it doesn't provide context about a game strategy. The second statement gives detailed context about a specific game strategy involving asking questions, selecting destinations, and deducing a scenario. They both discuss asking questions in a game setting, but they pertain to different contexts and offer different levels of information.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a player is allowed to ask questions in the game, while statement 2 implies a more complex gameplay that involves asking questions, choosing destinations, and deducing scenarios, not just questioning.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>As the players travel through the universe, they are permitted to ask questions about what information their fellow players possess.</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>A player can have asks which are questions</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. The first statement simply states that a player can ask questions. The second statement is more specific, speaking of players traveling through a universe and asking other players for information they possess.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. While both involve players and questions, the contexts provided are different. Statement 1 is a general premise, while Statement 2 provides a specific scenario: players traveling through the universe. Statement 2 also introduces the aspect of asking about the specific information other players possess.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 suggests that a player is allowed to have questions or "asks."
+Statement 2 is more specific and states that as players travel through the universe, they can ask the other players about the information they have. This statement explains more about the context and circumstances in which the questions can be asked.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. Statement 1 suggests that a player can make inquiries, without specifying the context or receivers of these inquiries. Statement 2, however, specifies that the players can ask questions about specific information from fellow players while they travel through the universe. This statement sets a more specific scenario for the questioning.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies a general concept that a player can ask questions, but doesn't tell what these questions are related to or in what context. On the other hand, statement 2 is more specific, indicating the context of the game, which includes travelling through the universe and asking questions about the information that the other players possess.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>A player can have asks which are questions</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement talks about a player who can ask questions, while the second statement is about how questions can form a hypothesis about a murder circumstance and perpetrator, inviting the remaining players to disprove with their evidence. These two statements discuss different aspects of a possible game scenario.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about a player's ability to ask questions, while the second statement discusses forming a hypothesis based on questions and inviting others to disprove it.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement talks about a player asking questions while the second statement talks about players forming a hypothesis and others disproving it. They describe different aspects or rules of a game.</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, these statements are not synonymous. Statement 1 is referring to the possibility of a player asking questions, while statement 2 discusses the formation of a hypothesis and disproving it with evidence. They are likely related to the same game or activity, but the statements express different ideas. </t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a player can ask questions, while statement 2 implies that those questions form a hypothesis for a specific scenario (a murder circumstance) that other players are tasked with disproving.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>A player whose token resides on one of four planets having wormhole connections to other planets may choose not to spin the spinner and take the wormhole directly to the other planet.</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player travels to planets </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. The first statement simply indicates that a player moves between planets, while the second statement specifies particular circumstances and options for a player's movement between specific planets.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement simply states that a player travels to planets, but it doesn't provide any information about how the travel happens or any rules involved. The second statement is much more specific, explaining a certain rule of play involving token placement, wormhole connections, and an option to skip a certain action.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is very general and simply states that a player travels to planets. The second statement is much more specific and discusses a particular method of travel between planets through a wormhole, under certain conditions.</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 simply states that a player travels to planets. Statement 2, on the other hand, provides specific game mechanics on how a player can move between the planets.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. Statement 1 simply implies that a player travels to planets, but it does not specify how the player travels or anything about the player's options or mechanisms of travel. Statement 2, on the other hand, describes a specific method of travel --via a wormhole-- and gives the player a choice about whether to use that method or to spin a spinner to determine their travel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>A player may not re-visit the same planet on a single turn.</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A player travels to planets </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. The first statement is about the action of a player traveling to planets, but it does not specify any rules or restrictions. The second statement, however, provides a specific rule that the player cannot visit the same planet within a single turn. They are related in the sense they both involve a player and planets, but they express different details.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 simply states that a player travels to planets. Statement 2, on the other hand, provides a specific rule of the game which is that a player cannot visit the same planet twice in one turn.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. 
+Statement 1 is saying that a player is moving or travelling to different planets. 
+Statement 2 on the other hand, places a specific rule or restriction on the player’s movements, stating that they cannot return to a planet they have already visited during one turn/start-to-finish round of gameplay.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 is saying that a player is able to visit planets. Statement 2 is setting a limitation on how often a player can visit the same planet.</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. Statement 1 implies that a player is traveling to different planets but doesn't specify any limitations or rules. Statement 2 implies a specific rule of the game, stating that within a single turn, a player cannot visit a planet they have already been to.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement discusses a planet having a warmhole to other planets. The second statement talks about a player winning a game by making a correct murder hypothesis. The topics and meanings of the two statements are completely different.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. They discuss completely different topics. The first statement talks about a planet having a wormhole to other planets. The second statement is about how to win a certain game which involves making a correct murder hypothesis.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. The first statement is about a planet having a wormhole to other planets. The second statement is about a player winning a game by correctly guessing a hypothesis. They are completely different in context and meaning.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They convey two completely different situations; one discusses a hypothetical physics concept related to planets and the other describes a method of winning in a game with a murder mystery theme.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 relates to a planet having wormholes to other planets, which implies interstellar travel or communication. Statement 2 implicates a player winning a game by correctly guessing a murder scenario, which is related to game mechanics and reasoning abilities. The two statements are distinct in their content and implications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>The game is an intergalactic murder mystery, which emulates a board game scenario in which players spin a wheel to determine a randomly selected number of moves by which they travel through space to various planets.</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement suggests a planet has a wormhole leading to other planets, while the second statement describes a game scenario involving traveling through space to various planets. They could both involve space or interplanetary travel, but they do not convey the same meaning or concept.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. The first statement talks about a planet having a wormhole to other planets, while the second statement describes a game involving space travel and mystery.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. The first statement is referring to a planet having a wormhole to other planets. The second statement is describing a game with an intergalactic murder mystery theme, where players move around by spinning a wheel. These two ideas are not the same.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. They are talking about different things. The first one is about a planet having a wormhole to other planets, and the second one is describing an intergalactic board game.</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 talks about a specific planet having a wormhole to other planets while Statement 2 describes a game that involves traveling through space to different planets. They are about different things and imply different situations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>The wormholes connect certain planets.</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. 
+The first statement implies that a specific planet has a wormhole to other planets, not specifying whether it is a single or multiple wormholes. 
+The second statement suggests that wormholes connect certain planets, but it doesn't specify any specific planet and how the connection is distributed among the planets.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>No, these statements do not convey the exact same information. Statement 1 suggests that a single planet has access to wormholes that lead to other planets. Statement 2, on the other hand, simply states that wormholes connect planets in an unspecified manner. It could be any number of planets connected in any configuration. Additionally, Statement 1 incorrectly uses "haves" instead of "has".</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>No, these statements do not convey exactly the same meaning. 
+Statement 1 suggests that a specific planet has wormholes to other planets. However, it is grammatically incorrect. A corrected version might be, "A planet has wormholes to other planets."
+Statement 2 suggests that some wormholes connect certain planets but it does not specify if a particular planet has wormholes to others. It is a more general statement.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Yes, both statements imply that there are wormholes connecting different planets. However, they are not exactly synonymous as the first statement implies that one specific planet has wormholes to other planets, while the second statement could either mean the same or could refer to multiple planets connected by wormholes. Moreover, Statement 1 should be corrected grammatically to: "A planet has wormholes to other planets".</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. Statement 1 suggests that a specific planet has wormholes to other planets, implying that the planet in question is the starting point for these wormholes. Statement 2 is a more general statement stating that wormholes exist and connect certain planets, without specifying a starting point.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>To visit a planet, a player must enter the planet's atmosphere at one of the predefined entry points.</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement speaks about a hypothetical concept of a planet having a wormhole to other planets, which is a theoretical aspect in astrophysics. The second statement, however, seems to be referring to a game's rule wherein a player must enter a planet at predefined points, which introduces a concept of gameplay and atmosphere entry points. These two concepts are quite different from each other.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 talks about a planet having a wormhole to other planets while Statement 2 describes the process a player must follow to visit a planet.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 is about a planet having a warmhole (likely a misspelling of "wormhole") to other planets, which implies a supernatural or sci-fi means of travel between planets. Statement 2, however, refers to a more conventional process of visiting a planet by entering its atmosphere at specific points.</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 discusses a planet having a wormhole to other planets, which implies a form of transportation or connection between planets. Statement 2 discusses a specific method of accessing a planet (entering the planet's atmosphere) at specific locations, without any reference to wormholes.</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 suggests the existence of wormholes, a concept related to space travel and theoretical physics. Statement 2 refers to the requirements for a player to visit a planet, presumably in a game or simulation, which involves entering the planet's atmosphere at specific entry points. The two statements are not related.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>The game's strategy is embodied in selecting questions to ask other players, selecting planet destinations, and efficiently deducing the correct murder scenario.</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement talks about a planet possessing a wormhole to other planets. The second statement discusses a game strategy that involves asking questions, choosing planet destinations, and deducing a murder scenario. They address two entirely different topics.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement mentions a planet having a wormhole to other planets, while the second statement describes a strategy in a game involving asking questions, selecting planet destinations, and deducing a murder scenario.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is talking about a hypothetical astronomical feature of a planet having a wormhole to other planets. The second statement is discussing the strategies involved in a game.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are discussing completely different topics.</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a planet has a wormhole to other planets. Statement 2 implies a strategy for a game that involves questioning, choosing destinations, and solving a murder scenario. They involve completely different subjects and implications - the first is about space travel or theoretical physics, the second is about gameplay and strategy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Each planet has between one and three predefined atmospheric entry points.</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. The first statement discusses a planet having a wormhole to other planets, suggesting interplanetary travel or connection via a hypothetical shortcut in space-time. The second statement, however, is about the specific number of atmospheric entry points that each planet has, which is related to the planet's structure and has nothing to do with interplanetary travel or connections.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same information. Statement 1 talks about a planet having a wormhole to other planets. Statement 2 refers to each planet having one to three specific atmospheric entry points. Wormholes and atmospheric entry points are not the same thing.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 suggests that a planet has a wormhole or a hypothetical connection between different points in space-time, potentially to other planets.
+Statement 2 means that each planet has a set number (between one and three) of specific points where one could enter its atmosphere. 
+They both relate to space exploration but discuss different concepts.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement suggests a planet has a wormhole, a theoretical passage through space-time, to other planets. The second statement refers to specific points where a spacecraft can safely enter a planet's atmosphere, which is unrelated to the concept of a wormhole.</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a planet has a wormhole, or a hypothetical shortcut through space-time, to other planets. Statement 2 implies that each planet has specific points for entering its atmosphere, with each planet having between one and three such points. These are different concepts.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>The player is considered to be on the planet as soon as the planet's atmosphere has been entered.</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is about a planet having a wormhole to other planets. The second statement speaks about the location of a player relative to a planet. They address entirely different topics.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same information. The first statement talks about a planet having a wormhole to other planets. The second statement discusses the condition under which a player is deemed to be on a planet in a game context.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. The first statement talks about a planet having a wormhole (a concept from science fiction referring to a hypothetical passage through space-time) to other planets. The second statement is about a scenario in a game where a player is considered to be on a planet once they enter the planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement discusses a planet having wormholes to other planets, which relates to interstellar travel or teleportation concept. The second statement refers to the player being considered on the planet once they've entered the planet's atmosphere, which relates to the notion of arrival or presence in a game setting. Their subjects and meanings are different.</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a planet has portals or connections to other planets. Statement 2 implies rules for when a player is considered to be on a planet in a game or simulation, specifically as soon as they enter the planet's atmosphere. They are about different topics and have different implications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>The player can enter the planet's atmosphere in a different number of moves.</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. The first statement is about a planet having a wormhole (a hypothetical feature in space-time) that possibly leads to other planets. The second statement is about a player being able to enter a planet's atmosphere with a variable number of moves, possibly referring to a game. These two statements discuss completely different situations and concepts.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. Statement 1 talks about a planet having a warmhole to other planets, while statement 2 refers to how a player can enter the planet's atmosphere in different number of moves.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. The first statement is talking about a planet having wormholes (assumed misspelling of 'warmhole') to other planets, which is a theoretical passage through space-time. The second statement is about a player being able to enter a planet's atmosphere in a game with a variable number of moves.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement is about a planet having a wormhole (a theoretical passage through space-time that could create shortcuts for long journeys across the universe) leading to other planets. The second statement is about a player being able to enter a planet's atmosphere in a variable number of moves, possibly in context of a game. These two statements are talking about different concepts.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that there is a special shortcut or connection between planets, which could potentially be used for traveling. Statement 2 implies that there are varying ways to reach the atmosphere of the planet, possibly based on the game mechanics or a player's strategy, but it does not necessarily imply the existence of a wormhole or shortcut.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>A player may not re-visit the same planet on a single turn.</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is talking about a planet having a wormhole to other planets. The second statement is about a rule in a game where a player can't return to the same planet within a single turn. Both are about planets, but they're referring to different contexts and scenarios.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. Statement 1 talks about a planet having a warmhole to other planets while Statement 2 talks about a restriction on a player's move in a game.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. The first statement talks about a planet possessing wormholes (note the spelling) to other planets, implying a way to travel different places. The second statement involves game rules, prohibiting a player from visiting the same planet again in a single turn. There isn't a common meaning between both statements.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 describes a feature of a planet, suggesting it has a wormhole to other planets. Statement 2 is a game rule preventing a player from visiting the same planet within a single game turn. They are referring to very different aspects and hence cannot be considered synonymous.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a planet has connections to other planets through a wormhole. Statement 2 implies a rule in a game where the player cannot return to the same planet within one turn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>These entry points are graphically depicted on the game as a diagonal line off a square on the board leading into a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 talks about a planet having a wormhole to other planets. Statement 2 describes how entry points (potentially wormholes) are visually represented in a game. There is no direct equivalence between the two statements.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 talks about a planet having a warmhole to other planets. On the other hand, Statement 2 explains how these entry points (possibly wormholes) are depicted in a game.</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a planet having a wormhole (a theoretical passage through space-time that could create shortcuts for long journeys across the universe) to other planets. The second statement is discussing how entry points into a planet's atmosphere are represented in a game.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement refers to a theoretical concept in physics and astronomy, referring to a "wormhole" or portal between planets. The second statement appears to describe a feature in a game, presumably a board game, depicting entry points into a planet's atmosphere. The context and specifics of the two statements don't align.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>No, the two statements do not have identical implications. Statement 1 suggests that a planet has a wormhole connecting it to other planets. Statement 2 is talking about how these entry points (possibly the wormholes) are represented graphically in a game. They refer to similar concepts but they don't imply the same thing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>The objective of player movement throughout the universe is to investigate specific planets to determine if that was the murder site.</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A planet haves warmhole to planets </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 talks about a planet having a wormhole to other planets, while Statement 2 discusses a player's objective in a game (or similar scenario) to investigate planets for a murder site. They deal with entirely different subjects.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement talks about a planet having a wormhole to other planets. The second statement talks about a player moving throughout the universe to investigate specific planets for a murder site.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same message.
+Statement 1 is about a theoretical concept in physics, wormholes, that could connect distant parts of the universe, including planets.
+Statement 2 seems to describe a game mechanism where a player explores different planets in the universe to find a murder site. The two statements are unrelated.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement speaks about a planet having a wormhole to other planets, suggesting advanced space travel or scientific phenomena. The second statement refers to a game objective where a player is supposed to investigate planets to find a murder site.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a planet has a wormhole leading to other planets. Statement 2 suggests that someone (likely in a game given the reference to a 'player') is moving throughout the universe to investigate planets in relation to a murder case. There's no necessary connection between the two statements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Statement 1 refers to a hypothesis including a planet, but gives no further context. Statement 2 provides a detailed situation involving a game, where a player can win by presenting a correct murder hypothesis that needs to consist of a planet, a perpetrator, and a murder weapon. This statement 2 is more specific and complex than statement 1.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement simply mentions a hypothesis having a planet. The second statement, however, provides much more detailed information about game rules, specifically on how a player can win the game through a murder hypothesis that includes a planet, a perpetrator, and a murder weapon.</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. 
+Statement 1 is simply indicating that a hypothesis includes a planet. It does not provide any additional context or information.
+Statement 2 is much more detailed, indicating that within a game, a player wins by making a correct murder hypothesis that includes a planet, a perpetrator, and a murder weapon. The server ultimately determines if the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement simply states that a hypothesis includes a planet. The second statement provides a more detailed scenario of a game where a player proposes a hypothesis, including a planet, perpetrator, and murder weapon, to win the game.</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 simply indicates a hypothesis includes a planet. Statement 2, however, introduces additional elements: a game, a player, a perpetrator, a murder weapon. It provides further context: the player needs to make an accurate hypothesis during their turn, and the server verifies the correctness of this hypothesis for the player to win the game. Therefore, the implications of the two statements are not identical.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>The game is an intergalactic murder mystery, which emulates a board game scenario in which players spin a wheel to determine a randomly selected number of moves by which they travel through space to various planets.</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They convey vastly different ideas. The first one talks about a hypothesis having a planet, while the second one describes a game scenario involving space travel and various planets.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. They discuss different topics. The first statement is about a hypothesis that involves a planet. The second statement is about a game with a space and mystery theme.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement talks about a hypothesis having a planet, which is somewhat obscure until we know the context or details of that hypothesis. The second one is more specific, describing the mechanics and theme of a game. There's no apparent connection or similar meaning between the two statements.</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>No, these two statements are not synonymous. They are talking about different subjects and do not convey the same meaning.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 simply implies that there is a hypothesis involving a planet. Statement 2 is more complex, discussing a game scenario involving traveling through space to various planets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>The wormholes connect certain planets.</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>No, these two statements are not semantically equal. They relate to completely different topics. The first statement is about a hypothesis having a planet, which is vaguely referring to a theory or assumption in astronomy. The second statement is about wormholes connecting certain planets, referring to a theoretical concept in physics.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about a hypothesis having a planet while the second statement tells about the connection of certain planets through wormholes.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement refers to a guess or prediction that involves a planet, while the second statement refers to a connection between specific planets via wormholes.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are discussing different matters. Statement 1 is about a hypothesis that involves a planet. Statement 2 is about wormholes connecting certain planets.</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 is referring to a possibility or theory involving a planet. Statement 2 is about wormholes being connected to certain planets. Their meanings and implications are different.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>To visit a planet, a player must enter the planet's atmosphere at one of the predefined entry points.</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. Each statement conveys a different idea. Statement 1 talks about a planet belonging to a hypothesis, while statement 2 explains the conditions through which a player can visit a planet.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the exact same information. The first statement talks about a hypothesis having a planet while the second statement talks about the requirements for a player to visit a planet.</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is talking about a hypothesis having a planet, which is somewhat ambiguous, while the second statement provides specific details about how a player can visit a planet.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They communicate different ideas. The first statement suggests a theory or possibility about a planet, while the second statement defines specifics about how a player can visit a planet in a game or simulation.</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies an assertion or theory involving a planet while Statement 2 is about a certain rule or procedure to visit a planet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>The game's strategy is embodied in selecting questions to ask other players, selecting planet destinations, and efficiently deducing the correct murder scenario.</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement talks about a hypothesis having a planet which is quite abstract and unclear. The second statement describes the strategy of a game that includes asking questions, choosing planet destinations, and deducing a murder scenario. They relate to entirely different concepts.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. The first statement talks about a hypothesis having a planet which doesn't make much sense as it is, while the second statement describes the strategy of a game.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They deal with completely different subjects - the first is about a hypothesis having a planet and the second is about a game strategy involving question selection, destination selection, and deduction of a murder scenario.</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 implies something about a hypothesis having a planet and is generally unclear. Statement 2 is about a game and the strategy involved in playing it, which has nothing to do with the implications of statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Each planet has between one and three predefined atmospheric entry points.</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement discusses a hypothesis that involves a planet, while the second statement discusses specific characteristics of each planet such as atmospheric entry points.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first one talks about a hypothesis having a planet while the second one discusses about atmospheric entry points of each planet.</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement speaks about a hypothesis having a planet, while the second statement talks about each planet having specific atmospheric entry points.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. The first statement relates to a hypothesis having a planet, which is quite ambiguous. The second statement is clear and specific, stating that every planet has a certain number of predefined atmospheric entry points. The two statements do not convey the same meaning.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 is about a hypothesis having a planet, while Statement 2 talks about the specific traits of a planet, such as having between one and three predefined atmospheric entry points.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>The player is considered to be on the planet as soon as the planet's atmosphere has been entered.</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They discuss different concepts. The first statement is about a hypothesis having a planet, which can be a part of a scientific theory or discussion. The second statement talks about a player entering a planet's atmosphere, which is likely related to a video game or simulation scenario.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about a hypothesis having a planet, while the second statement discusses the condition under which a player is considered to be on the planet.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>No, the two statements are not conveying the same meaning. Statement 1 is talking about a hypothesis that involves a planet. Statement 2, on the other hand, is talking about a rule or condition set for a player entering a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They talk about two different concepts related to planets.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 is proposing that a certain hypothesis includes a planet. Statement 2 is saying that a player is considered to be on a planet when they enter the planet's atmosphere. These are two different subjects and scenarios.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>The planets, Linuta and Verlute, have a wormhole connecting each other, as do Earth and Evilon.</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement discusses a hypothesis possessing a planet, while the second statement specifically discusses two pairs of planets connected by wormholes. The subjects and the details conveyed in each sentence are completely different.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. Statement 1 discusses a hypothesis having a planet, while Statement 2 discusses specific planets being connected by a wormhole.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 is saying that there is a planet in a hypothesis. Statement 2 is suggesting that there is a wormhole connecting two specific planets, and that Earth and another planet have a similar connection. These are two different ideas.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. 
+The first statement discusses a concept or theory having a planet as part of its premise. The second statement provides information on specific planets that are interconnected through wormholes. They discuss different things and are not interchangeable.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>No, statements 1 and 2 do not have identical implications. Statement 1 implies that a certain theory or suggestion includes a planet. Statement 2 implies that there are specific connections between particular pairs of planets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>The player can enter the planet's atmosphere in a different number of moves.</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement talks about a hypothesis having a planet, whereas the second statement discusses a player's ability to enter a planet's atmosphere in a varying number of moves. They are addressing different concepts and scenarios.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the same information. The first statement is about a hypothesis having a planet, and the second statement is about a player being able to enter a planet's atmosphere in a varying number of moves.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a hypothesis having a planet, while the second statement is about the number of moves a player can enter a planet's atmosphere with. They are completely different in context and content.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are addressing different scenarios and contexts. The first talks about a suggestion or a possibility regarding a planet, while the second discusses a player's ability to interact within a game operation or scenario involving a planet.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a certain theory or supposition includes a planet, whereas statement 2 implies an interactive action related to a player and a planet. They involve different contexts and suggest different actions or states.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>A player visits a planet by making legal moves on the board until a cell adjacent to an atmosphere entry point is reached.</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They are discussing different topics and concepts. The first statement is about a hypothesis possessing a planet, which doesn't make much sense in a literal or common sense, as a hypothesis is an idea or suggestion to explain something and not a physical entity to own a planet. The second statement is describing a player's actions in a specific game scenario involving a board and a planet.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement talks about a hypothesis having a planet while the second statement talks about a player visiting a planet in a game.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>No, these two statements do not convey the same meaning. The first statement talks about a hypothesis having a planet, which is slightly ambiguous and doesn't provide clear context. The second statement describes a player's actions in a game involving moving around a board towards an atmosphere entry potentially of a planet. They focus on different contexts and ideas.</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They are talking about two completely different concepts: the first one about a scientific proposition or hypothesis having something to do with a planet, and the second one about a game involving movement across a board to reach a planet.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 implies that a hypothesis includes a planet in some way. Statement 2 provides a detailed scenario of a game that involves a player, a planet, and specific moves on a board. The implications of the two statements are different.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>A player may not re-visit the same planet on a single turn.</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement is referring to a hypothesis having a planet, which doesn't make much sense. The second statement is talking about a rule in a game where a player cannot return to the same planet within the same turn. They are discussing different subjects and concepts.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is discussing the existence of a planet within a hypothesis, while the second statement is setting a rule for a player during a game possibly related to planets.</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They convey different ideas. Statement1 talks about the existence of a planet inside a hypothesis, which doesn't make a lot of contextual sense. Statement2, however, is a rule regarding a game that involves a player visiting different planets.</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. They refer to two entirely different concepts; the first is ambiguous and seems to refer to a hypothesis in a scientific context involving a planet, while the second refers to a rule in a game involving planets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>These entry points are graphically depicted on the game as a diagonal line off a square on the board leading into a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. They convey different information. Statement 1 refers to a hypothesis about a planet, while Statement 2 describes how certain points on a game are depicted leading into a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information.</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. Statement 1 is about a hypothesis having a planet, which is a bit unclear and might be in the context of scientific study or theory. Statement 2 is about a specific visual representation of entry points into a planet's atmosphere in a game.</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. Statement 1 is suggesting that a hypothesis includes a planet, and it is quite vague and unclear. Statement 2 is describing a specific detail about how entry points to a planet are depicted in a game. The two statements have different contexts and meanings.</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>No, Statement 1 and Statement 2 do not have identical implications. Statement 1 talks generally about a hypothesis having a planet, which is a somewhat unclear statement. Statement 2 describes a specific scenario in a game where entry points are visually represented by a particular graphic. The two statements are about completely different subjects and imply different things.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>A player whose token resides on one of four planets having wormhole connections to other planets may choose not to spin the spinner and take the wormhole directly to the other planet.</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>A hypothesis has a planet</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>No, the two statements are not semantically equal. The first statement implies that a hypothesis includes a planet in its formulation. The second statement describes a rule or action that a player can take within the context of a game involving planets and wormholes. These two concepts are not equivalent.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>No, the two statements do not convey the exact same information. The first statement is about a hypothesis having a planet, while the second statement describes the actions of a player in a game involving planets and wormholes.</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>No, these two statements are not conveying the same meaning. The first statement is about a hypothesis having a planet, which is unclear since hypothesis is a proposed explanation for a phenomenon, it doesn't technically possess physical entities. The second statement is a detailed description of a feature in a game where a player can move directly to another planet using a wormhole instead of spinning the spinner.</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>No, these statements are not synonymous. They talk about completely different subjects. The first one mentions a hypothesis having a planet, which is somewhat incoherent as typically, a hypothesis is an assumption or proposition. The second one describes a game situation where a player can move their token across planets via a wormhole.</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>No, statement 1 and statement 2 do not have identical implications. Statement 1 talks about a hypothesis owning a planet, whereas statement 2 explains a specific action a player can take in a game involving planets with wormhole connections.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
